--- a/exp.xlsx
+++ b/exp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>SDH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>128bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schmidt初始化B SDH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,14 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="3" width="26.88671875" customWidth="1"/>
     <col min="9" max="9" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -588,6 +593,22 @@
         <v>0.46460000000000001</v>
       </c>
     </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.46779999999999999</v>
+      </c>
+      <c r="M4">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="U4">
+        <v>0.45839999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
